--- a/biology/Botanique/Buplèvre_à_feuilles_rondes/Buplèvre_à_feuilles_rondes.xlsx
+++ b/biology/Botanique/Buplèvre_à_feuilles_rondes/Buplèvre_à_feuilles_rondes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bupl%C3%A8vre_%C3%A0_feuilles_rondes</t>
+          <t>Buplèvre_à_feuilles_rondes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bupleurum rotundifolium
 Le Buplèvre à feuilles rondes (Bupleurum rotundifolium) est une plante herbacée annuelle de la famille des Apiaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bupl%C3%A8vre_%C3%A0_feuilles_rondes</t>
+          <t>Buplèvre_à_feuilles_rondes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure de 20 à 60 cm, il est glauque ou d'un vert grisâtre.
 Les feuilles sont indivises et à bord entier, de forme ovale-suborbiculaire :
-- les supérieures à nervation radiale, sont perfoliées[1] ;
+- les supérieures à nervation radiale, sont perfoliées ;
 - les inférieures sont embrassantes.
 Ses petites ombelles de 5 à 8 rayons sans involucre, sont caractérisées par des bractéoles vert-jaune devenant blanchâtres à la fructification qui dépassent les ombellules de fleurs jaunes.
 Les fruits à côtes saillantes mesurent de 3 à 4 mm.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bupl%C3%A8vre_%C3%A0_feuilles_rondes</t>
+          <t>Buplèvre_à_feuilles_rondes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (1 mai 2014)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (1 mai 2014) (Attention liste brute contenant possiblement des synonymes) :
 Bupleurum rotundifolium subsp. intermedium (Loisel.) DC.
 Bupleurum rotundifolium var. alpinum Lapeyr.
 Bupleurum rotundifolium var. intermedium Loisel.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bupl%C3%A8vre_%C3%A0_feuilles_rondes</t>
+          <t>Buplèvre_à_feuilles_rondes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,9 +600,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient l'être si des mesures de conservation spécifiques n'étaient pas prises[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient l'être si des mesures de conservation spécifiques n'étaient pas prises.
 Elle est considérée comme étant disparue en Nord-Pas-de-Calais, Picardie, Île de France, Franche-Comté, Haute-Normandie ; en danger-critique (CR) en régions Centre, Champagne-Ardennes, Aquitaine, Poitou-Charentes, Lorraine, Limousin, Pays de la Loire et Alsace ; en danger (EN) en Bourgogne, Rhône-Alpes et Auvergne ; comme vulnérable (VU) en Alsace ;  quasi menacée en Midi-Pyrénées.
 </t>
         </is>
